--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/StageDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/StageDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Desktop\공부\ExcelToTabText\ExcelToTabText\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66EDC0D-2D7E-47DE-8007-BBD3E25ED6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3C3854-C2A2-4737-8B2B-0679D1628F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19950" yWindow="23160" windowWidth="19590" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableStage" sheetId="1" r:id="rId1"/>
@@ -403,25 +403,25 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -494,12 +494,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/StageDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/StageDataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3C3854-C2A2-4737-8B2B-0679D1628F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDCFD76-3099-49F6-90D7-6112D3E57337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Map01</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>EnemyBoss_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Map01</t>
   </si>
   <si>
     <t>Stage02</t>
@@ -106,6 +103,22 @@
       </rPr>
       <t>설명</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageIcon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Stage1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Stage2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -400,42 +413,42 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" customWidth="1"/>
-    <col min="10" max="10" width="34.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.88671875" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="4" max="5" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" customWidth="1"/>
+    <col min="11" max="11" width="34.5546875" customWidth="1"/>
+    <col min="12" max="12" width="25.88671875" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -444,22 +457,25 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -470,31 +486,34 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>1000</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>10</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -502,30 +521,33 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>1000</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>10</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>100</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/StageDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/StageDataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDCFD76-3099-49F6-90D7-6112D3E57337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182094FC-C8B5-4EAA-934F-DC0F59501D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableStage" sheetId="1" r:id="rId1"/>
@@ -415,8 +415,8 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -495,13 +495,13 @@
         <v>1000</v>
       </c>
       <c r="H2" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2">
         <v>100</v>
       </c>
       <c r="J2" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>13</v>
@@ -533,13 +533,13 @@
         <v>1000</v>
       </c>
       <c r="H3" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2">
         <v>100</v>
       </c>
       <c r="J3" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>14</v>
